--- a/AAII_Financials/Yearly/WTKWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WTKWY_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>5911600</v>
+        <v>5916500</v>
       </c>
       <c r="E8" s="3">
-        <v>5172200</v>
+        <v>5176500</v>
       </c>
       <c r="F8" s="3">
-        <v>4990100</v>
+        <v>4994300</v>
       </c>
       <c r="G8" s="3">
-        <v>4999900</v>
+        <v>5004000</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1710700</v>
+        <v>1712100</v>
       </c>
       <c r="E9" s="3">
-        <v>1489600</v>
+        <v>1490800</v>
       </c>
       <c r="F9" s="3">
-        <v>1473300</v>
+        <v>1474500</v>
       </c>
       <c r="G9" s="3">
-        <v>1501500</v>
+        <v>1502700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -766,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>4200900</v>
+        <v>4204400</v>
       </c>
       <c r="E10" s="3">
-        <v>3682700</v>
+        <v>3685700</v>
       </c>
       <c r="F10" s="3">
-        <v>3516800</v>
+        <v>3519700</v>
       </c>
       <c r="G10" s="3">
-        <v>3498400</v>
+        <v>3501300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -806,16 +806,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>586500</v>
+        <v>587000</v>
       </c>
       <c r="E12" s="3">
-        <v>505200</v>
+        <v>505600</v>
       </c>
       <c r="F12" s="3">
-        <v>469400</v>
+        <v>469800</v>
       </c>
       <c r="G12" s="3">
-        <v>491100</v>
+        <v>491500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -863,7 +863,7 @@
         <v>-56400</v>
       </c>
       <c r="E14" s="3">
-        <v>67200</v>
+        <v>67300</v>
       </c>
       <c r="F14" s="3">
         <v>5400</v>
@@ -887,16 +887,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>151800</v>
+        <v>151900</v>
       </c>
       <c r="E15" s="3">
-        <v>142000</v>
+        <v>142100</v>
       </c>
       <c r="F15" s="3">
-        <v>156100</v>
+        <v>156200</v>
       </c>
       <c r="G15" s="3">
-        <v>156100</v>
+        <v>156200</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4466500</v>
+        <v>4470200</v>
       </c>
       <c r="E17" s="3">
-        <v>4075100</v>
+        <v>4078500</v>
       </c>
       <c r="F17" s="3">
-        <v>3928800</v>
+        <v>3932000</v>
       </c>
       <c r="G17" s="3">
-        <v>4007900</v>
+        <v>4011200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1445100</v>
+        <v>1446300</v>
       </c>
       <c r="E18" s="3">
-        <v>1097100</v>
+        <v>1098000</v>
       </c>
       <c r="F18" s="3">
-        <v>1061300</v>
+        <v>1062200</v>
       </c>
       <c r="G18" s="3">
-        <v>992000</v>
+        <v>992800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1018,16 +1018,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1960100</v>
+        <v>1961500</v>
       </c>
       <c r="E21" s="3">
-        <v>1589300</v>
+        <v>1590400</v>
       </c>
       <c r="F21" s="3">
-        <v>1575200</v>
+        <v>1576300</v>
       </c>
       <c r="G21" s="3">
-        <v>1526400</v>
+        <v>1527500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1051,10 +1051,10 @@
         <v>69400</v>
       </c>
       <c r="F22" s="3">
-        <v>80200</v>
+        <v>80300</v>
       </c>
       <c r="G22" s="3">
-        <v>81300</v>
+        <v>81400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1383300</v>
+        <v>1384500</v>
       </c>
       <c r="E23" s="3">
-        <v>1007100</v>
+        <v>1008000</v>
       </c>
       <c r="F23" s="3">
-        <v>1015800</v>
+        <v>1016600</v>
       </c>
       <c r="G23" s="3">
-        <v>930200</v>
+        <v>930900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>269900</v>
+        <v>270200</v>
       </c>
       <c r="E24" s="3">
-        <v>217900</v>
+        <v>218100</v>
       </c>
       <c r="F24" s="3">
-        <v>234200</v>
+        <v>234400</v>
       </c>
       <c r="G24" s="3">
-        <v>204900</v>
+        <v>205100</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1113400</v>
+        <v>1114300</v>
       </c>
       <c r="E26" s="3">
-        <v>789200</v>
+        <v>789900</v>
       </c>
       <c r="F26" s="3">
-        <v>781600</v>
+        <v>782300</v>
       </c>
       <c r="G26" s="3">
-        <v>725300</v>
+        <v>725900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1113400</v>
+        <v>1114300</v>
       </c>
       <c r="E27" s="3">
-        <v>789200</v>
+        <v>789900</v>
       </c>
       <c r="F27" s="3">
-        <v>781600</v>
+        <v>782300</v>
       </c>
       <c r="G27" s="3">
-        <v>725300</v>
+        <v>725900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1113400</v>
+        <v>1114300</v>
       </c>
       <c r="E33" s="3">
-        <v>789200</v>
+        <v>789900</v>
       </c>
       <c r="F33" s="3">
-        <v>781600</v>
+        <v>782300</v>
       </c>
       <c r="G33" s="3">
-        <v>725300</v>
+        <v>725900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1113400</v>
+        <v>1114300</v>
       </c>
       <c r="E35" s="3">
-        <v>789200</v>
+        <v>789900</v>
       </c>
       <c r="F35" s="3">
-        <v>781600</v>
+        <v>782300</v>
       </c>
       <c r="G35" s="3">
-        <v>725300</v>
+        <v>725900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1481,16 +1481,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>473800</v>
+        <v>474100</v>
       </c>
       <c r="E41" s="3">
-        <v>423900</v>
+        <v>424200</v>
       </c>
       <c r="F41" s="3">
-        <v>662400</v>
+        <v>662900</v>
       </c>
       <c r="G41" s="3">
-        <v>657000</v>
+        <v>657500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1508,16 +1508,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>985400</v>
+        <v>986300</v>
       </c>
       <c r="E42" s="3">
-        <v>661300</v>
+        <v>661900</v>
       </c>
       <c r="F42" s="3">
-        <v>121400</v>
+        <v>121500</v>
       </c>
       <c r="G42" s="3">
-        <v>317600</v>
+        <v>317900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1451600</v>
+        <v>1452800</v>
       </c>
       <c r="E43" s="3">
-        <v>1343200</v>
+        <v>1344300</v>
       </c>
       <c r="F43" s="3">
-        <v>1255400</v>
+        <v>1256400</v>
       </c>
       <c r="G43" s="3">
-        <v>1394200</v>
+        <v>1395300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1562,16 +1562,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>85600</v>
+        <v>85700</v>
       </c>
       <c r="E44" s="3">
         <v>70500</v>
       </c>
       <c r="F44" s="3">
-        <v>73700</v>
+        <v>73800</v>
       </c>
       <c r="G44" s="3">
-        <v>79100</v>
+        <v>79200</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1589,16 +1589,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>230900</v>
+        <v>231100</v>
       </c>
       <c r="E45" s="3">
-        <v>469400</v>
+        <v>469800</v>
       </c>
       <c r="F45" s="3">
-        <v>253700</v>
+        <v>253900</v>
       </c>
       <c r="G45" s="3">
-        <v>236300</v>
+        <v>236500</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1616,16 +1616,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3227400</v>
+        <v>3230000</v>
       </c>
       <c r="E46" s="3">
-        <v>2968300</v>
+        <v>2970700</v>
       </c>
       <c r="F46" s="3">
-        <v>2366600</v>
+        <v>2368600</v>
       </c>
       <c r="G46" s="3">
-        <v>2684200</v>
+        <v>2686500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1643,13 +1643,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>54200</v>
+        <v>54300</v>
       </c>
       <c r="E47" s="3">
         <v>56400</v>
       </c>
       <c r="F47" s="3">
-        <v>58500</v>
+        <v>58600</v>
       </c>
       <c r="G47" s="3">
         <v>55300</v>
@@ -1670,16 +1670,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>392400</v>
+        <v>392800</v>
       </c>
       <c r="E48" s="3">
-        <v>407600</v>
+        <v>408000</v>
       </c>
       <c r="F48" s="3">
-        <v>436900</v>
+        <v>437300</v>
       </c>
       <c r="G48" s="3">
-        <v>472700</v>
+        <v>473100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1697,16 +1697,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6550100</v>
+        <v>6555600</v>
       </c>
       <c r="E49" s="3">
-        <v>6287800</v>
+        <v>6293000</v>
       </c>
       <c r="F49" s="3">
-        <v>6112200</v>
+        <v>6117200</v>
       </c>
       <c r="G49" s="3">
-        <v>6172900</v>
+        <v>6178000</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1778,16 +1778,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>85600</v>
+        <v>85700</v>
       </c>
       <c r="E52" s="3">
-        <v>67200</v>
+        <v>67300</v>
       </c>
       <c r="F52" s="3">
         <v>78100</v>
       </c>
       <c r="G52" s="3">
-        <v>127900</v>
+        <v>128000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1832,16 +1832,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10309800</v>
+        <v>10318400</v>
       </c>
       <c r="E54" s="3">
-        <v>9787300</v>
+        <v>9795400</v>
       </c>
       <c r="F54" s="3">
-        <v>9052200</v>
+        <v>9059800</v>
       </c>
       <c r="G54" s="3">
-        <v>9513000</v>
+        <v>9520900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1885,16 +1885,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>159400</v>
+        <v>159500</v>
       </c>
       <c r="E57" s="3">
-        <v>133300</v>
+        <v>133500</v>
       </c>
       <c r="F57" s="3">
-        <v>144200</v>
+        <v>144300</v>
       </c>
       <c r="G57" s="3">
-        <v>183200</v>
+        <v>183400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1912,16 +1912,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>851000</v>
+        <v>851700</v>
       </c>
       <c r="E58" s="3">
-        <v>86700</v>
+        <v>86800</v>
       </c>
       <c r="F58" s="3">
-        <v>575700</v>
+        <v>576100</v>
       </c>
       <c r="G58" s="3">
-        <v>1078700</v>
+        <v>1079600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1939,16 +1939,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3184000</v>
+        <v>3186600</v>
       </c>
       <c r="E59" s="3">
-        <v>3092900</v>
+        <v>3095500</v>
       </c>
       <c r="F59" s="3">
-        <v>2696200</v>
+        <v>2698400</v>
       </c>
       <c r="G59" s="3">
-        <v>2867400</v>
+        <v>2869800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4194400</v>
+        <v>4197900</v>
       </c>
       <c r="E60" s="3">
-        <v>3313000</v>
+        <v>3315800</v>
       </c>
       <c r="F60" s="3">
-        <v>3416000</v>
+        <v>3418800</v>
       </c>
       <c r="G60" s="3">
-        <v>4129300</v>
+        <v>4132800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1993,16 +1993,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3068000</v>
+        <v>3070500</v>
       </c>
       <c r="E61" s="3">
-        <v>3307600</v>
+        <v>3310300</v>
       </c>
       <c r="F61" s="3">
-        <v>2792600</v>
+        <v>2795000</v>
       </c>
       <c r="G61" s="3">
-        <v>2288500</v>
+        <v>2290400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>543100</v>
+        <v>543600</v>
       </c>
       <c r="E62" s="3">
-        <v>546400</v>
+        <v>546800</v>
       </c>
       <c r="F62" s="3">
-        <v>581100</v>
+        <v>581600</v>
       </c>
       <c r="G62" s="3">
-        <v>514900</v>
+        <v>515400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2128,16 +2128,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7805500</v>
+        <v>7812000</v>
       </c>
       <c r="E66" s="3">
-        <v>7167000</v>
+        <v>7172900</v>
       </c>
       <c r="F66" s="3">
-        <v>6789700</v>
+        <v>6795400</v>
       </c>
       <c r="G66" s="3">
-        <v>6932800</v>
+        <v>6938600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2276,16 +2276,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2798100</v>
+        <v>2800400</v>
       </c>
       <c r="E72" s="3">
-        <v>2653900</v>
+        <v>2656100</v>
       </c>
       <c r="F72" s="3">
-        <v>2646300</v>
+        <v>2648500</v>
       </c>
       <c r="G72" s="3">
-        <v>2640900</v>
+        <v>2643100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2384,16 +2384,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2504300</v>
+        <v>2506300</v>
       </c>
       <c r="E76" s="3">
-        <v>2620300</v>
+        <v>2622400</v>
       </c>
       <c r="F76" s="3">
-        <v>2262500</v>
+        <v>2264400</v>
       </c>
       <c r="G76" s="3">
-        <v>2580200</v>
+        <v>2582300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1113400</v>
+        <v>1114300</v>
       </c>
       <c r="E81" s="3">
-        <v>789200</v>
+        <v>789900</v>
       </c>
       <c r="F81" s="3">
-        <v>781600</v>
+        <v>782300</v>
       </c>
       <c r="G81" s="3">
-        <v>725300</v>
+        <v>725900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2510,16 +2510,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>505200</v>
+        <v>505600</v>
       </c>
       <c r="E83" s="3">
-        <v>512800</v>
+        <v>513200</v>
       </c>
       <c r="F83" s="3">
-        <v>479200</v>
+        <v>479600</v>
       </c>
       <c r="G83" s="3">
-        <v>514900</v>
+        <v>515400</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2672,16 +2672,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1715000</v>
+        <v>1716500</v>
       </c>
       <c r="E89" s="3">
-        <v>1400700</v>
+        <v>1401800</v>
       </c>
       <c r="F89" s="3">
-        <v>1297700</v>
+        <v>1298700</v>
       </c>
       <c r="G89" s="3">
-        <v>1194700</v>
+        <v>1195700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2712,16 +2712,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-319800</v>
+        <v>-320100</v>
       </c>
       <c r="E91" s="3">
-        <v>-260200</v>
+        <v>-260400</v>
       </c>
       <c r="F91" s="3">
-        <v>-258000</v>
+        <v>-258200</v>
       </c>
       <c r="G91" s="3">
-        <v>-245000</v>
+        <v>-245200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2793,16 +2793,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-324100</v>
+        <v>-324400</v>
       </c>
       <c r="E94" s="3">
-        <v>-311100</v>
+        <v>-311400</v>
       </c>
       <c r="F94" s="3">
-        <v>-610300</v>
+        <v>-610900</v>
       </c>
       <c r="G94" s="3">
-        <v>-250400</v>
+        <v>-250600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2833,16 +2833,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-459700</v>
+        <v>-460000</v>
       </c>
       <c r="E96" s="3">
-        <v>-403300</v>
+        <v>-403600</v>
       </c>
       <c r="F96" s="3">
-        <v>-362100</v>
+        <v>-362400</v>
       </c>
       <c r="G96" s="3">
-        <v>-303500</v>
+        <v>-303800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -2941,16 +2941,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1074300</v>
+        <v>-1075200</v>
       </c>
       <c r="E100" s="3">
-        <v>-488900</v>
+        <v>-489300</v>
       </c>
       <c r="F100" s="3">
-        <v>-679700</v>
+        <v>-680300</v>
       </c>
       <c r="G100" s="3">
-        <v>-684100</v>
+        <v>-684600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2971,7 +2971,7 @@
         <v>47700</v>
       </c>
       <c r="E101" s="3">
-        <v>82400</v>
+        <v>82500</v>
       </c>
       <c r="F101" s="3">
         <v>-83500</v>
@@ -2995,16 +2995,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>364300</v>
+        <v>364600</v>
       </c>
       <c r="E102" s="3">
-        <v>683000</v>
+        <v>683600</v>
       </c>
       <c r="F102" s="3">
-        <v>-75900</v>
+        <v>-76000</v>
       </c>
       <c r="G102" s="3">
-        <v>276400</v>
+        <v>276700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
